--- a/docs/posts/rshiny_app_zebrabox/inputs/sample_plate_plan_plate_1.xlsx
+++ b/docs/posts/rshiny_app_zebrabox/inputs/sample_plate_plan_plate_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine Local\Desktop\PhD 2024-2027\Cahier de laboratoire\others\projects\website_personal\website_personal\posts\rshiny_app_zebrabox\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C9AA05-6EC0-4BD7-85B0-417A4F305122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14357AF3-CB6A-4EE3-80D9-CD448E1D28F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="127">
   <si>
     <t>animal</t>
   </si>
@@ -370,18 +370,12 @@
     <t>H12_plate_1</t>
   </si>
   <si>
-    <t>you plate plan should have 3 columns</t>
-  </si>
-  <si>
     <t>well-id with plate id</t>
   </si>
   <si>
     <t>plate id, in case where you have multiple plates for one experiment (should be fullfilled even if you only have one plate)</t>
   </si>
   <si>
-    <t xml:space="preserve">settings used to generate the plate plan : </t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -395,6 +389,21 @@
   </si>
   <si>
     <t>in this exemple, a 96-well plate was generated with  3 different conditions : 1, 10 and 100 mg/L with 5 replicates and 3 organisms/replicate, border wells were excluded</t>
+  </si>
+  <si>
+    <t>your plate plan should have 3 columns</t>
+  </si>
+  <si>
+    <t>1- animal</t>
+  </si>
+  <si>
+    <t>2- condition</t>
+  </si>
+  <si>
+    <t>3- plate_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settings used to generate the plate plan witht he app : </t>
   </si>
 </sst>
 </file>
@@ -734,11 +743,12 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
     <col min="9" max="9" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -753,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -767,10 +777,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -784,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -801,10 +811,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -829,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -865,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -924,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -966,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -994,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">

--- a/docs/posts/rshiny_app_zebrabox/inputs/sample_plate_plan_plate_1.xlsx
+++ b/docs/posts/rshiny_app_zebrabox/inputs/sample_plate_plan_plate_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine Local\Desktop\PhD 2024-2027\Cahier de laboratoire\others\projects\website_personal\website_personal\posts\rshiny_app_zebrabox\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14357AF3-CB6A-4EE3-80D9-CD448E1D28F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD24D3B-1347-4FCC-BD92-1F121190120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,7 +743,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
